--- a/bin/xlsx/装备表.xlsx
+++ b/bin/xlsx/装备表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="41">
   <si>
     <t>INT</t>
   </si>
@@ -142,10 +142,15 @@
     <t>采矿器</t>
   </si>
   <si>
-    <t>小</t>
-  </si>
-  <si>
     <t>DOUBLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -633,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -642,10 +648,10 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -725,49 +731,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10000001</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>1.82</v>
-      </c>
-      <c r="I4">
-        <v>2100</v>
-      </c>
-      <c r="J4">
-        <v>4000</v>
-      </c>
-      <c r="K4">
-        <v>15</v>
-      </c>
-      <c r="L4">
-        <v>0.3</v>
+      <c r="B4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10000002</v>
+        <v>10000001</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -779,22 +752,22 @@
         <v>29</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="I5">
         <v>2100</v>
       </c>
       <c r="J5">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K5">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <v>0.3</v>
@@ -802,10 +775,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10000003</v>
+        <v>10000002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -817,22 +790,22 @@
         <v>29</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="I6">
         <v>2100</v>
       </c>
       <c r="J6">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="K6">
-        <v>16.600000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="L6">
         <v>0.3</v>
@@ -840,10 +813,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10000004</v>
+        <v>10000003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -855,22 +828,22 @@
         <v>29</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="I7">
         <v>2100</v>
       </c>
       <c r="J7">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="K7">
-        <v>17.399999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L7">
         <v>0.3</v>
@@ -878,10 +851,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10000005</v>
+        <v>10000004</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -893,24 +866,62 @@
         <v>29</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="I8">
         <v>2100</v>
       </c>
       <c r="J8">
+        <v>4600</v>
+      </c>
+      <c r="K8">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10000005</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>1.46</v>
+      </c>
+      <c r="I9">
+        <v>2100</v>
+      </c>
+      <c r="J9">
         <v>4800</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>18.2</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>0.3</v>
       </c>
     </row>
@@ -923,10 +934,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -957,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -966,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1048,41 +1060,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>20000001</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>20</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>120</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>0</v>
       </c>
     </row>
@@ -1099,10 +1111,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1135,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -1144,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1226,41 +1239,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>30000001</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4">
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>15</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>4000</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>100</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>0</v>
       </c>
     </row>

--- a/bin/xlsx/装备表.xlsx
+++ b/bin/xlsx/装备表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
   <si>
     <t>INT</t>
   </si>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>小型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>client</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -597,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -938,7 +942,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1058,6 +1062,11 @@
       </c>
       <c r="L3" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1113,9 +1122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1239,6 +1248,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>30000001</v>

--- a/bin/xlsx/装备表.xlsx
+++ b/bin/xlsx/装备表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xiuxian\dbc\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="头" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="42">
   <si>
     <t>INT</t>
   </si>
@@ -58,26 +58,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>紫青双剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌天瓶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上品灵器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上品灵宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,10 +106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>talent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>wood</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -202,10 +178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不入品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -215,13 +187,17 @@
   </si>
   <si>
     <t>头巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,31 +634,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.9296875" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.06640625" customWidth="1"/>
-    <col min="7" max="8" width="12.265625" customWidth="1"/>
-    <col min="9" max="9" width="11.53125"/>
-    <col min="10" max="10" width="9.73046875" customWidth="1"/>
-    <col min="11" max="13" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="7.06640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="1025" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="10.125" customWidth="1"/>
+    <col min="7" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="11.5"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="1025" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -702,43 +678,43 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -746,55 +722,55 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="P2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -802,86 +778,86 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Q4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>10000003</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -937,83 +913,415 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3F39A5-73C6-4551-90F5-F588A2A11B54}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6631996-53A1-4A5B-B0B3-C45ECD593241}">
-  <dimension ref="A5:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>13000001</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5">
-        <v>1000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" t="s">
-        <v>44</v>
-      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1022,70 +1330,208 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A28738-A37C-4BFE-8B9C-ADF141B08F23}">
-  <dimension ref="A5:R5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>10000002</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5">
-        <v>2000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" t="s">
-        <v>44</v>
-      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1094,26 +1540,414 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B1538E-49CF-4D64-9F5B-8C9CA6D69112}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525B5CAC-EBD8-4EDC-80C9-28B122457085}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
